--- a/Prototype BackUp/PrototypeFinal/Prototype/bin/Release/Made/W/Track/W400m Hurdles.xlsx
+++ b/Prototype BackUp/PrototypeFinal/Prototype/bin/Release/Made/W/Track/W400m Hurdles.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="21015" windowHeight="10230"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="28755" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="W400m Hurdles" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1480" uniqueCount="92">
   <si>
     <t>.</t>
   </si>
@@ -330,7 +330,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF002288"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -349,7 +349,7 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FF002288"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -535,7 +535,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -575,18 +575,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="47" fontId="5" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -622,7 +610,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="en-NZ"/>
   <c:protection>
     <c:data val="1"/>
   </c:protection>
@@ -654,7 +642,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.16642389576946293"/>
+          <c:x val="0.16642389576946326"/>
           <c:y val="8.4435033856062228E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -673,7 +661,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.16022099447513821"/>
           <c:y val="7.1964070672723229E-2"/>
-          <c:w val="0.80773480662984376"/>
+          <c:w val="0.80773480662984576"/>
           <c:h val="0.79760178328934894"/>
         </c:manualLayout>
       </c:layout>
@@ -6642,13 +6630,15 @@
             <c:order val="2"/>
           </c:trendline>
           <c:xVal>
-            <c:numRef>
+            <c:strRef>
               <c:f>'W400m Hurdles'!$K$118:$K$120</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-              </c:numCache>
-            </c:numRef>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
@@ -6656,6 +6646,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -7798,11 +7791,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="187415552"/>
-        <c:axId val="187446400"/>
+        <c:axId val="235902464"/>
+        <c:axId val="235904384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="187415552"/>
+        <c:axId val="235902464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="34"/>
@@ -7836,8 +7829,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.49080621997722568"/>
-              <c:y val="0.94397349490978044"/>
+              <c:x val="0.49080621997722695"/>
+              <c:y val="0.94397349490978155"/>
             </c:manualLayout>
           </c:layout>
           <c:spPr>
@@ -7875,18 +7868,18 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187446400"/>
+        <c:crossAx val="235904384"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="187446400"/>
+        <c:axId val="235904384"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
-          <c:max val="7.6099500000000053E-4"/>
-          <c:min val="6.1342600000000816E-4"/>
+          <c:max val="7.6099500000000172E-4"/>
+          <c:min val="6.1342600000000946E-4"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:title>
@@ -7917,7 +7910,7 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="7.0724328412636534E-3"/>
-              <c:y val="0.41426176769920953"/>
+              <c:y val="0.41426176769921041"/>
             </c:manualLayout>
           </c:layout>
           <c:spPr>
@@ -7955,11 +7948,11 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187415552"/>
+        <c:crossAx val="235902464"/>
         <c:crossesAt val="14"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1.1574000000000015E-5"/>
-        <c:minorUnit val="2.8940000000000031E-6"/>
+        <c:majorUnit val="1.157400000000005E-5"/>
+        <c:minorUnit val="2.8940000000000095E-6"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -8005,7 +7998,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196850393659" l="0.74803149606299801" r="0.74803149606299801" t="0.98425196850393659" header="0.51181102362204722" footer="0.51181102362204722"/>
+    <c:pageMargins b="0.98425196850393659" l="0.74803149606299923" r="0.74803149606299923" t="0.98425196850393659" header="0.51181102362204722" footer="0.51181102362204722"/>
     <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="-3" verticalDpi="-3"/>
   </c:printSettings>
 </c:chartSpace>
@@ -8339,8 +8332,8 @@
   </sheetPr>
   <dimension ref="A1:AL150"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="S1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="T1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -9698,66 +9691,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="L1" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="M1" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="N1" s="28" t="s">
+      <c r="N1" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="O1" s="28" t="s">
+      <c r="O1" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="P1" s="28" t="s">
+      <c r="P1" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="Q1" s="28" t="s">
+      <c r="Q1" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="R1" s="27" t="s">
+      <c r="R1" s="23" t="s">
         <v>74</v>
       </c>
       <c r="AH1" s="2"/>
-      <c r="AI1" s="26" t="s">
+      <c r="AI1" s="22" t="s">
         <v>73</v>
       </c>
       <c r="AJ1" s="4"/>
-      <c r="AK1" s="25" t="s">
+      <c r="AK1" s="21" t="s">
         <v>72</v>
       </c>
     </row>
@@ -9817,11 +9810,11 @@
         <v>28.39</v>
       </c>
       <c r="AH2" s="2"/>
-      <c r="AI2" s="26">
+      <c r="AI2" s="22">
         <v>38437</v>
       </c>
       <c r="AJ2" s="4"/>
-      <c r="AK2" s="25">
+      <c r="AK2" s="21">
         <f>D3</f>
         <v>6.4722222222222232E-4</v>
       </c>
@@ -11795,73 +11788,73 @@
       <c r="AK34" s="7"/>
     </row>
     <row r="35" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A35" s="20" t="s">
+      <c r="A35" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="18">
+      <c r="C35" s="13">
         <v>21.33</v>
       </c>
-      <c r="D35" s="19">
+      <c r="D35" s="14">
         <v>6.3900462962962967E-4</v>
       </c>
-      <c r="E35" s="18" t="s">
+      <c r="E35" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F35" s="18" t="s">
+      <c r="F35" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G35" s="18">
+      <c r="G35" s="13">
         <v>20.57</v>
       </c>
-      <c r="H35" s="19">
+      <c r="H35" s="14">
         <v>6.4722222222222232E-4</v>
       </c>
-      <c r="I35" s="18" t="s">
+      <c r="I35" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="J35" s="18" t="s">
+      <c r="J35" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="K35" s="18">
+      <c r="K35" s="13">
         <v>20.51</v>
       </c>
-      <c r="L35" s="19">
+      <c r="L35" s="14">
         <v>6.5937499999999991E-4</v>
       </c>
-      <c r="M35" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="N35" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="O35" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="P35" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="R35" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="S35" s="21"/>
-      <c r="T35" s="21"/>
-      <c r="U35" s="21"/>
-      <c r="V35" s="21"/>
-      <c r="W35" s="21"/>
-      <c r="X35" s="21"/>
-      <c r="Y35" s="21"/>
-      <c r="Z35" s="21"/>
-      <c r="AA35" s="21"/>
-      <c r="AB35" s="21"/>
-      <c r="AC35" s="21"/>
-      <c r="AD35" s="21"/>
-      <c r="AE35" s="21"/>
+      <c r="M35" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="N35" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="O35" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P35" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="R35" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="S35" s="17"/>
+      <c r="T35" s="17"/>
+      <c r="U35" s="17"/>
+      <c r="V35" s="17"/>
+      <c r="W35" s="17"/>
+      <c r="X35" s="17"/>
+      <c r="Y35" s="17"/>
+      <c r="Z35" s="17"/>
+      <c r="AA35" s="17"/>
+      <c r="AB35" s="17"/>
+      <c r="AC35" s="17"/>
+      <c r="AD35" s="17"/>
+      <c r="AE35" s="17"/>
       <c r="AF35" s="16"/>
       <c r="AG35" s="16"/>
       <c r="AH35" s="2"/>
@@ -11873,77 +11866,77 @@
       <c r="AK35" s="7"/>
     </row>
     <row r="36" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A36" s="20" t="s">
+      <c r="A36" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C36" s="18">
+      <c r="C36" s="13">
         <v>26.38</v>
       </c>
-      <c r="D36" s="19">
+      <c r="D36" s="14">
         <v>6.321759259259259E-4</v>
       </c>
-      <c r="E36" s="18" t="s">
+      <c r="E36" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F36" s="18" t="s">
+      <c r="F36" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G36" s="13">
         <v>22.35</v>
       </c>
-      <c r="H36" s="19">
+      <c r="H36" s="14">
         <v>6.3784722222222227E-4</v>
       </c>
-      <c r="I36" s="18" t="s">
+      <c r="I36" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="J36" s="18" t="s">
+      <c r="J36" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="K36" s="18">
+      <c r="K36" s="13">
         <v>24.06</v>
       </c>
-      <c r="L36" s="19">
+      <c r="L36" s="14">
         <v>6.4756944444444443E-4</v>
       </c>
-      <c r="M36" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="N36" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="O36" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="P36" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="R36" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="S36" s="21"/>
-      <c r="T36" s="21" t="s">
+      <c r="M36" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="N36" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="O36" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P36" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="R36" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="S36" s="17"/>
+      <c r="T36" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="U36" s="21" t="s">
+      <c r="U36" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="V36" s="21"/>
-      <c r="W36" s="21"/>
-      <c r="X36" s="21"/>
-      <c r="Y36" s="21"/>
-      <c r="Z36" s="21"/>
-      <c r="AA36" s="21"/>
-      <c r="AB36" s="21"/>
-      <c r="AC36" s="21"/>
-      <c r="AD36" s="21"/>
-      <c r="AE36" s="21"/>
+      <c r="V36" s="17"/>
+      <c r="W36" s="17"/>
+      <c r="X36" s="17"/>
+      <c r="Y36" s="17"/>
+      <c r="Z36" s="17"/>
+      <c r="AA36" s="17"/>
+      <c r="AB36" s="17"/>
+      <c r="AC36" s="17"/>
+      <c r="AD36" s="17"/>
+      <c r="AE36" s="17"/>
       <c r="AF36" s="16"/>
       <c r="AG36" s="16"/>
       <c r="AH36" s="2"/>
@@ -11955,74 +11948,74 @@
       <c r="AK36" s="7"/>
     </row>
     <row r="37" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A37" s="20"/>
-      <c r="B37" s="18" t="s">
+      <c r="A37" s="15"/>
+      <c r="B37" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C37" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="D37" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18" t="s">
+      <c r="C37" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G37" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="H37" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18" t="s">
+      <c r="G37" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="K37" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="L37" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="M37" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="N37" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="O37" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="P37" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="R37" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="S37" s="24" t="s">
+      <c r="K37" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="L37" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="M37" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="N37" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="O37" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P37" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="R37" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="S37" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="T37" s="23">
+      <c r="T37" s="19">
         <v>6.134259259259259E-4</v>
       </c>
-      <c r="U37" s="22">
+      <c r="U37" s="18">
         <f>T37</f>
         <v>6.134259259259259E-4</v>
       </c>
-      <c r="V37" s="21"/>
-      <c r="W37" s="21"/>
-      <c r="X37" s="21"/>
-      <c r="Y37" s="21"/>
-      <c r="Z37" s="21"/>
-      <c r="AA37" s="21"/>
-      <c r="AB37" s="21"/>
-      <c r="AC37" s="21"/>
-      <c r="AD37" s="21"/>
-      <c r="AE37" s="21"/>
+      <c r="V37" s="17"/>
+      <c r="W37" s="17"/>
+      <c r="X37" s="17"/>
+      <c r="Y37" s="17"/>
+      <c r="Z37" s="17"/>
+      <c r="AA37" s="17"/>
+      <c r="AB37" s="17"/>
+      <c r="AC37" s="17"/>
+      <c r="AD37" s="17"/>
+      <c r="AE37" s="17"/>
       <c r="AF37" s="16"/>
       <c r="AG37" s="16"/>
       <c r="AH37" s="2"/>
@@ -12034,80 +12027,80 @@
       <c r="AK37" s="7"/>
     </row>
     <row r="38" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A38" s="20" t="s">
+      <c r="A38" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="18">
+      <c r="C38" s="13">
         <v>17.55</v>
       </c>
-      <c r="D38" s="19">
+      <c r="D38" s="14">
         <v>6.6874999999999997E-4</v>
       </c>
-      <c r="E38" s="18" t="s">
+      <c r="E38" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F38" s="18" t="s">
+      <c r="F38" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G38" s="18">
+      <c r="G38" s="13">
         <v>21.07</v>
       </c>
-      <c r="H38" s="19">
+      <c r="H38" s="14">
         <v>6.7453703703703697E-4</v>
       </c>
-      <c r="I38" s="18" t="s">
+      <c r="I38" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="J38" s="18" t="s">
+      <c r="J38" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="K38" s="18">
+      <c r="K38" s="13">
         <v>20.420000000000002</v>
       </c>
-      <c r="L38" s="19">
+      <c r="L38" s="14">
         <v>6.6331018518518518E-4</v>
       </c>
-      <c r="M38" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="N38" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="O38" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="P38" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="R38" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="S38" s="24" t="s">
+      <c r="M38" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="N38" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="O38" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P38" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="R38" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="S38" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="T38" s="23">
+      <c r="T38" s="19">
         <v>7.1180555555555548E-4</v>
       </c>
-      <c r="U38" s="22">
+      <c r="U38" s="18">
         <f>T38</f>
         <v>7.1180555555555548E-4</v>
       </c>
-      <c r="V38" s="21"/>
-      <c r="W38" s="21"/>
-      <c r="X38" s="21"/>
-      <c r="Y38" s="21"/>
-      <c r="Z38" s="21"/>
-      <c r="AA38" s="21"/>
-      <c r="AB38" s="21"/>
-      <c r="AC38" s="21"/>
-      <c r="AD38" s="21"/>
-      <c r="AE38" s="21"/>
+      <c r="V38" s="17"/>
+      <c r="W38" s="17"/>
+      <c r="X38" s="17"/>
+      <c r="Y38" s="17"/>
+      <c r="Z38" s="17"/>
+      <c r="AA38" s="17"/>
+      <c r="AB38" s="17"/>
+      <c r="AC38" s="17"/>
+      <c r="AD38" s="17"/>
+      <c r="AE38" s="17"/>
       <c r="AF38" s="16"/>
       <c r="AG38" s="16"/>
       <c r="AH38" s="2"/>
@@ -12119,80 +12112,80 @@
       <c r="AK38" s="7"/>
     </row>
     <row r="39" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A39" s="20" t="s">
+      <c r="A39" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="18">
+      <c r="C39" s="13">
         <v>20.05</v>
       </c>
-      <c r="D39" s="19">
+      <c r="D39" s="14">
         <v>6.6215277777777789E-4</v>
       </c>
-      <c r="E39" s="18" t="s">
+      <c r="E39" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F39" s="18" t="s">
+      <c r="F39" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G39" s="18">
+      <c r="G39" s="13">
         <v>25.68</v>
       </c>
-      <c r="H39" s="19">
+      <c r="H39" s="14">
         <v>6.5231481481481477E-4</v>
       </c>
-      <c r="I39" s="18" t="s">
+      <c r="I39" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="J39" s="18" t="s">
+      <c r="J39" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="K39" s="18">
+      <c r="K39" s="13">
         <v>24.26</v>
       </c>
-      <c r="L39" s="19">
+      <c r="L39" s="14">
         <v>6.4606481481481481E-4</v>
       </c>
-      <c r="M39" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="N39" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="O39" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="P39" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="R39" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="S39" s="24" t="s">
+      <c r="M39" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="N39" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="O39" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P39" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="R39" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="S39" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="T39" s="23">
+      <c r="T39" s="19">
         <v>5.7870370370370367E-6</v>
       </c>
-      <c r="U39" s="22">
+      <c r="U39" s="18">
         <f>T39</f>
         <v>5.7870370370370367E-6</v>
       </c>
-      <c r="V39" s="21"/>
-      <c r="W39" s="21"/>
-      <c r="X39" s="21"/>
-      <c r="Y39" s="21"/>
-      <c r="Z39" s="21"/>
-      <c r="AA39" s="21"/>
-      <c r="AB39" s="21"/>
-      <c r="AC39" s="21"/>
-      <c r="AD39" s="21"/>
-      <c r="AE39" s="21"/>
+      <c r="V39" s="17"/>
+      <c r="W39" s="17"/>
+      <c r="X39" s="17"/>
+      <c r="Y39" s="17"/>
+      <c r="Z39" s="17"/>
+      <c r="AA39" s="17"/>
+      <c r="AB39" s="17"/>
+      <c r="AC39" s="17"/>
+      <c r="AD39" s="17"/>
+      <c r="AE39" s="17"/>
       <c r="AF39" s="16"/>
       <c r="AG39" s="16"/>
       <c r="AH39" s="2"/>
@@ -12204,80 +12197,80 @@
       <c r="AK39" s="7"/>
     </row>
     <row r="40" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A40" s="20" t="s">
+      <c r="A40" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="18">
+      <c r="C40" s="13">
         <v>22.55</v>
       </c>
-      <c r="D40" s="19">
+      <c r="D40" s="14">
         <v>6.5057870370370367E-4</v>
       </c>
-      <c r="E40" s="18" t="s">
+      <c r="E40" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F40" s="18" t="s">
+      <c r="F40" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G40" s="18">
+      <c r="G40" s="13">
         <v>30.29</v>
       </c>
-      <c r="H40" s="19">
+      <c r="H40" s="14">
         <v>6.4814814814814813E-4</v>
       </c>
-      <c r="I40" s="18" t="s">
+      <c r="I40" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="J40" s="18" t="s">
+      <c r="J40" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="K40" s="18">
+      <c r="K40" s="13">
         <v>28.1</v>
       </c>
-      <c r="L40" s="19">
+      <c r="L40" s="14">
         <v>6.4386574074074075E-4</v>
       </c>
-      <c r="M40" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="N40" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="O40" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="P40" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="R40" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="S40" s="24" t="s">
+      <c r="M40" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="N40" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="O40" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P40" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="R40" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="S40" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="T40" s="23">
+      <c r="T40" s="19">
         <v>1.1574074074074074E-6</v>
       </c>
-      <c r="U40" s="22">
+      <c r="U40" s="18">
         <f>T40</f>
         <v>1.1574074074074074E-6</v>
       </c>
-      <c r="V40" s="21"/>
-      <c r="W40" s="21"/>
-      <c r="X40" s="21"/>
-      <c r="Y40" s="21"/>
-      <c r="Z40" s="21"/>
-      <c r="AA40" s="21"/>
-      <c r="AB40" s="21"/>
-      <c r="AC40" s="21"/>
-      <c r="AD40" s="21"/>
-      <c r="AE40" s="21"/>
+      <c r="V40" s="17"/>
+      <c r="W40" s="17"/>
+      <c r="X40" s="17"/>
+      <c r="Y40" s="17"/>
+      <c r="Z40" s="17"/>
+      <c r="AA40" s="17"/>
+      <c r="AB40" s="17"/>
+      <c r="AC40" s="17"/>
+      <c r="AD40" s="17"/>
+      <c r="AE40" s="17"/>
       <c r="AF40" s="16"/>
       <c r="AG40" s="16"/>
       <c r="AH40" s="2"/>
@@ -12289,67 +12282,67 @@
       <c r="AK40" s="7"/>
     </row>
     <row r="41" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A41" s="20"/>
-      <c r="B41" s="18" t="s">
+      <c r="A41" s="15"/>
+      <c r="B41" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="D41" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18" t="s">
+      <c r="C41" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G41" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="H41" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18" t="s">
+      <c r="G41" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="K41" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="L41" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="M41" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="N41" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="O41" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="P41" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="R41" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="S41" s="21"/>
-      <c r="T41" s="21"/>
-      <c r="U41" s="21"/>
-      <c r="V41" s="21"/>
-      <c r="W41" s="21"/>
-      <c r="X41" s="21"/>
-      <c r="Y41" s="21"/>
-      <c r="Z41" s="21"/>
-      <c r="AA41" s="21"/>
-      <c r="AB41" s="21"/>
-      <c r="AC41" s="21"/>
-      <c r="AD41" s="21"/>
-      <c r="AE41" s="21"/>
+      <c r="K41" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="L41" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="M41" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="N41" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="O41" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P41" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="R41" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="S41" s="17"/>
+      <c r="T41" s="17"/>
+      <c r="U41" s="17"/>
+      <c r="V41" s="17"/>
+      <c r="W41" s="17"/>
+      <c r="X41" s="17"/>
+      <c r="Y41" s="17"/>
+      <c r="Z41" s="17"/>
+      <c r="AA41" s="17"/>
+      <c r="AB41" s="17"/>
+      <c r="AC41" s="17"/>
+      <c r="AD41" s="17"/>
+      <c r="AE41" s="17"/>
       <c r="AF41" s="16"/>
       <c r="AG41" s="16"/>
       <c r="AH41" s="2"/>
@@ -12361,73 +12354,73 @@
       <c r="AK41" s="7"/>
     </row>
     <row r="42" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="20" t="s">
+      <c r="A42" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C42" s="18">
+      <c r="C42" s="13">
         <v>22.87</v>
       </c>
-      <c r="D42" s="19">
+      <c r="D42" s="14">
         <v>6.5138888888888896E-4</v>
       </c>
-      <c r="E42" s="18" t="s">
+      <c r="E42" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F42" s="18" t="s">
+      <c r="F42" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G42" s="18">
+      <c r="G42" s="13">
         <v>24.86</v>
       </c>
-      <c r="H42" s="19">
+      <c r="H42" s="14">
         <v>6.5590277777777782E-4</v>
       </c>
-      <c r="I42" s="18" t="s">
+      <c r="I42" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="J42" s="18" t="s">
+      <c r="J42" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="K42" s="18">
+      <c r="K42" s="13">
         <v>23.69</v>
       </c>
-      <c r="L42" s="19">
+      <c r="L42" s="14">
         <v>6.5324074074074069E-4</v>
       </c>
-      <c r="M42" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="N42" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="O42" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="P42" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="R42" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="S42" s="21"/>
-      <c r="T42" s="21"/>
-      <c r="U42" s="21"/>
-      <c r="V42" s="21"/>
-      <c r="W42" s="21"/>
-      <c r="X42" s="21"/>
-      <c r="Y42" s="21"/>
-      <c r="Z42" s="21"/>
-      <c r="AA42" s="21"/>
-      <c r="AB42" s="21"/>
-      <c r="AC42" s="21"/>
-      <c r="AD42" s="21"/>
-      <c r="AE42" s="21"/>
+      <c r="M42" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="N42" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="O42" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P42" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="R42" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="S42" s="17"/>
+      <c r="T42" s="17"/>
+      <c r="U42" s="17"/>
+      <c r="V42" s="17"/>
+      <c r="W42" s="17"/>
+      <c r="X42" s="17"/>
+      <c r="Y42" s="17"/>
+      <c r="Z42" s="17"/>
+      <c r="AA42" s="17"/>
+      <c r="AB42" s="17"/>
+      <c r="AC42" s="17"/>
+      <c r="AD42" s="17"/>
+      <c r="AE42" s="17"/>
       <c r="AF42" s="16"/>
       <c r="AG42" s="16"/>
       <c r="AH42" s="2"/>
@@ -12439,73 +12432,73 @@
       <c r="AK42" s="7"/>
     </row>
     <row r="43" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A43" s="20" t="s">
+      <c r="A43" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="18">
+      <c r="C43" s="13">
         <v>27.08</v>
       </c>
-      <c r="D43" s="19">
+      <c r="D43" s="14">
         <v>6.3182870370370378E-4</v>
       </c>
-      <c r="E43" s="18" t="s">
+      <c r="E43" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F43" s="18" t="s">
+      <c r="F43" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G43" s="18">
+      <c r="G43" s="13">
         <v>28.71</v>
       </c>
-      <c r="H43" s="19">
+      <c r="H43" s="14">
         <v>6.4837962962962972E-4</v>
       </c>
-      <c r="I43" s="18" t="s">
+      <c r="I43" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="J43" s="18" t="s">
+      <c r="J43" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="K43" s="18">
+      <c r="K43" s="13">
         <v>26.19</v>
       </c>
-      <c r="L43" s="19">
+      <c r="L43" s="14">
         <v>6.5115740740740748E-4</v>
       </c>
-      <c r="M43" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="N43" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="O43" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="P43" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="R43" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="S43" s="21"/>
-      <c r="T43" s="21"/>
-      <c r="U43" s="21"/>
-      <c r="V43" s="21"/>
-      <c r="W43" s="21"/>
-      <c r="X43" s="21"/>
-      <c r="Y43" s="21"/>
-      <c r="Z43" s="21"/>
-      <c r="AA43" s="21"/>
-      <c r="AB43" s="21"/>
-      <c r="AC43" s="21"/>
-      <c r="AD43" s="21"/>
-      <c r="AE43" s="21"/>
+      <c r="M43" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="N43" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="O43" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P43" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="R43" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="S43" s="17"/>
+      <c r="T43" s="17"/>
+      <c r="U43" s="17"/>
+      <c r="V43" s="17"/>
+      <c r="W43" s="17"/>
+      <c r="X43" s="17"/>
+      <c r="Y43" s="17"/>
+      <c r="Z43" s="17"/>
+      <c r="AA43" s="17"/>
+      <c r="AB43" s="17"/>
+      <c r="AC43" s="17"/>
+      <c r="AD43" s="17"/>
+      <c r="AE43" s="17"/>
       <c r="AF43" s="16"/>
       <c r="AG43" s="16"/>
       <c r="AH43" s="2"/>
@@ -12517,73 +12510,73 @@
       <c r="AK43" s="7"/>
     </row>
     <row r="44" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A44" s="20" t="s">
+      <c r="A44" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C44" s="18">
+      <c r="C44" s="13">
         <v>31.29</v>
       </c>
-      <c r="D44" s="19">
+      <c r="D44" s="14">
         <v>6.2870370370370369E-4</v>
       </c>
-      <c r="E44" s="18" t="s">
+      <c r="E44" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F44" s="18" t="s">
+      <c r="F44" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G44" s="18">
+      <c r="G44" s="13">
         <v>32.56</v>
       </c>
-      <c r="H44" s="19">
+      <c r="H44" s="14">
         <v>6.4583333333333322E-4</v>
       </c>
-      <c r="I44" s="18" t="s">
+      <c r="I44" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="J44" s="18" t="s">
+      <c r="J44" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="K44" s="18">
+      <c r="K44" s="13">
         <v>28.69</v>
       </c>
-      <c r="L44" s="19">
+      <c r="L44" s="14">
         <v>6.543981481481482E-4</v>
       </c>
-      <c r="M44" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="N44" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="O44" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="P44" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="R44" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="S44" s="21"/>
-      <c r="T44" s="21"/>
-      <c r="U44" s="21"/>
-      <c r="V44" s="21"/>
-      <c r="W44" s="21"/>
-      <c r="X44" s="21"/>
-      <c r="Y44" s="21"/>
-      <c r="Z44" s="21"/>
-      <c r="AA44" s="21"/>
-      <c r="AB44" s="21"/>
-      <c r="AC44" s="21"/>
-      <c r="AD44" s="21"/>
-      <c r="AE44" s="21"/>
+      <c r="M44" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="N44" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="O44" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P44" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="R44" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="S44" s="17"/>
+      <c r="T44" s="17"/>
+      <c r="U44" s="17"/>
+      <c r="V44" s="17"/>
+      <c r="W44" s="17"/>
+      <c r="X44" s="17"/>
+      <c r="Y44" s="17"/>
+      <c r="Z44" s="17"/>
+      <c r="AA44" s="17"/>
+      <c r="AB44" s="17"/>
+      <c r="AC44" s="17"/>
+      <c r="AD44" s="17"/>
+      <c r="AE44" s="17"/>
       <c r="AF44" s="16"/>
       <c r="AG44" s="16"/>
       <c r="AH44" s="2"/>
@@ -12595,67 +12588,67 @@
       <c r="AK44" s="7"/>
     </row>
     <row r="45" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A45" s="20"/>
-      <c r="B45" s="18" t="s">
+      <c r="A45" s="15"/>
+      <c r="B45" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C45" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="D45" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18" t="s">
+      <c r="C45" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G45" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="H45" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="I45" s="18"/>
-      <c r="J45" s="18" t="s">
+      <c r="G45" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="K45" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="L45" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="M45" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="N45" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="O45" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="P45" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="R45" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="S45" s="21"/>
-      <c r="T45" s="21"/>
-      <c r="U45" s="21"/>
-      <c r="V45" s="21"/>
-      <c r="W45" s="21"/>
-      <c r="X45" s="21"/>
-      <c r="Y45" s="21"/>
-      <c r="Z45" s="21"/>
-      <c r="AA45" s="21"/>
-      <c r="AB45" s="21"/>
-      <c r="AC45" s="21"/>
-      <c r="AD45" s="21"/>
-      <c r="AE45" s="21"/>
+      <c r="K45" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="L45" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="M45" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="N45" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="O45" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P45" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="R45" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="S45" s="17"/>
+      <c r="T45" s="17"/>
+      <c r="U45" s="17"/>
+      <c r="V45" s="17"/>
+      <c r="W45" s="17"/>
+      <c r="X45" s="17"/>
+      <c r="Y45" s="17"/>
+      <c r="Z45" s="17"/>
+      <c r="AA45" s="17"/>
+      <c r="AB45" s="17"/>
+      <c r="AC45" s="17"/>
+      <c r="AD45" s="17"/>
+      <c r="AE45" s="17"/>
       <c r="AF45" s="16"/>
       <c r="AG45" s="16"/>
       <c r="AH45" s="2"/>
@@ -12667,73 +12660,73 @@
       <c r="AK45" s="7"/>
     </row>
     <row r="46" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A46" s="20" t="s">
+      <c r="A46" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C46" s="18">
+      <c r="C46" s="13">
         <v>15.56</v>
       </c>
-      <c r="D46" s="19">
+      <c r="D46" s="14">
         <v>6.9189814814814819E-4</v>
       </c>
-      <c r="E46" s="18" t="s">
+      <c r="E46" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F46" s="18" t="s">
+      <c r="F46" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G46" s="18">
+      <c r="G46" s="13">
         <v>15.08</v>
       </c>
-      <c r="H46" s="19">
+      <c r="H46" s="14">
         <v>7.0254629629629627E-4</v>
       </c>
-      <c r="I46" s="18" t="s">
+      <c r="I46" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="J46" s="18" t="s">
+      <c r="J46" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="K46" s="18">
+      <c r="K46" s="13">
         <v>19.09</v>
       </c>
-      <c r="L46" s="19">
+      <c r="L46" s="14">
         <v>6.7766203703703706E-4</v>
       </c>
-      <c r="M46" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="N46" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="O46" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="P46" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="R46" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="S46" s="21"/>
-      <c r="T46" s="21"/>
-      <c r="U46" s="21"/>
-      <c r="V46" s="21"/>
-      <c r="W46" s="21"/>
-      <c r="X46" s="21"/>
-      <c r="Y46" s="21"/>
-      <c r="Z46" s="21"/>
-      <c r="AA46" s="21"/>
-      <c r="AB46" s="21"/>
-      <c r="AC46" s="21"/>
-      <c r="AD46" s="21"/>
-      <c r="AE46" s="21"/>
+      <c r="M46" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="N46" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="O46" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P46" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="R46" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="S46" s="17"/>
+      <c r="T46" s="17"/>
+      <c r="U46" s="17"/>
+      <c r="V46" s="17"/>
+      <c r="W46" s="17"/>
+      <c r="X46" s="17"/>
+      <c r="Y46" s="17"/>
+      <c r="Z46" s="17"/>
+      <c r="AA46" s="17"/>
+      <c r="AB46" s="17"/>
+      <c r="AC46" s="17"/>
+      <c r="AD46" s="17"/>
+      <c r="AE46" s="17"/>
       <c r="AF46" s="16"/>
       <c r="AG46" s="16"/>
       <c r="AH46" s="2"/>
@@ -12745,73 +12738,73 @@
       <c r="AK46" s="7"/>
     </row>
     <row r="47" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A47" s="20" t="s">
+      <c r="A47" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C47" s="18">
+      <c r="C47" s="13">
         <v>21.04</v>
       </c>
-      <c r="D47" s="19">
+      <c r="D47" s="14">
         <v>6.4837962962962972E-4</v>
       </c>
-      <c r="E47" s="18" t="s">
+      <c r="E47" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F47" s="18" t="s">
+      <c r="F47" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G47" s="18">
+      <c r="G47" s="13">
         <v>21.66</v>
       </c>
-      <c r="H47" s="19">
+      <c r="H47" s="14">
         <v>6.5821759259259262E-4</v>
       </c>
-      <c r="I47" s="18" t="s">
+      <c r="I47" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="J47" s="18" t="s">
+      <c r="J47" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="K47" s="18">
+      <c r="K47" s="13">
         <v>22.56</v>
       </c>
-      <c r="L47" s="19">
+      <c r="L47" s="14">
         <v>6.6400462962962952E-4</v>
       </c>
-      <c r="M47" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="N47" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="O47" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="P47" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="R47" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="S47" s="21"/>
-      <c r="T47" s="21"/>
-      <c r="U47" s="21"/>
-      <c r="V47" s="21"/>
-      <c r="W47" s="21"/>
-      <c r="X47" s="21"/>
-      <c r="Y47" s="21"/>
-      <c r="Z47" s="21"/>
-      <c r="AA47" s="21"/>
-      <c r="AB47" s="21"/>
-      <c r="AC47" s="21"/>
-      <c r="AD47" s="21"/>
-      <c r="AE47" s="21"/>
+      <c r="M47" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="N47" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="O47" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P47" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="R47" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="S47" s="17"/>
+      <c r="T47" s="17"/>
+      <c r="U47" s="17"/>
+      <c r="V47" s="17"/>
+      <c r="W47" s="17"/>
+      <c r="X47" s="17"/>
+      <c r="Y47" s="17"/>
+      <c r="Z47" s="17"/>
+      <c r="AA47" s="17"/>
+      <c r="AB47" s="17"/>
+      <c r="AC47" s="17"/>
+      <c r="AD47" s="17"/>
+      <c r="AE47" s="17"/>
       <c r="AF47" s="16"/>
       <c r="AG47" s="16"/>
       <c r="AH47" s="2"/>
@@ -12823,58 +12816,58 @@
       <c r="AK47" s="7"/>
     </row>
     <row r="48" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A48" s="20" t="s">
+      <c r="A48" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B48" s="18" t="s">
+      <c r="B48" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="18">
+      <c r="C48" s="13">
         <v>26.53</v>
       </c>
-      <c r="D48" s="19">
+      <c r="D48" s="14">
         <v>6.4027777777777781E-4</v>
       </c>
-      <c r="E48" s="18" t="s">
+      <c r="E48" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F48" s="18" t="s">
+      <c r="F48" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G48" s="18">
+      <c r="G48" s="13">
         <v>28.23</v>
       </c>
-      <c r="H48" s="19">
+      <c r="H48" s="14">
         <v>6.3993055555555559E-4</v>
       </c>
-      <c r="I48" s="18" t="s">
+      <c r="I48" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="J48" s="18" t="s">
+      <c r="J48" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="K48" s="18">
+      <c r="K48" s="13">
         <v>26.03</v>
       </c>
-      <c r="L48" s="19">
+      <c r="L48" s="14">
         <v>6.625E-4</v>
       </c>
-      <c r="M48" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="N48" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="O48" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="P48" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="R48" s="17" t="s">
+      <c r="M48" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="N48" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="O48" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P48" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="R48" s="12" t="s">
         <v>0</v>
       </c>
       <c r="S48" s="16"/>
@@ -12901,52 +12894,52 @@
       <c r="AK48" s="7"/>
     </row>
     <row r="49" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A49" s="20"/>
-      <c r="B49" s="18" t="s">
+      <c r="A49" s="15"/>
+      <c r="B49" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C49" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="D49" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18" t="s">
+      <c r="C49" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G49" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="H49" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="I49" s="18"/>
-      <c r="J49" s="18" t="s">
+      <c r="G49" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H49" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="K49" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="L49" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="M49" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="N49" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="O49" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="P49" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="R49" s="17" t="s">
+      <c r="K49" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="L49" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="M49" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="N49" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="O49" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P49" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="R49" s="12" t="s">
         <v>0</v>
       </c>
       <c r="S49" s="16"/>
@@ -12973,58 +12966,58 @@
       <c r="AK49" s="7"/>
     </row>
     <row r="50" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A50" s="20" t="s">
+      <c r="A50" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B50" s="18" t="s">
+      <c r="B50" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C50" s="18">
+      <c r="C50" s="13">
         <v>19.68</v>
       </c>
-      <c r="D50" s="19">
+      <c r="D50" s="14">
         <v>6.6377314814814814E-4</v>
       </c>
-      <c r="E50" s="18" t="s">
+      <c r="E50" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F50" s="18" t="s">
+      <c r="F50" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G50" s="18">
+      <c r="G50" s="13">
         <v>18.600000000000001</v>
       </c>
-      <c r="H50" s="19">
+      <c r="H50" s="14">
         <v>6.8217592592592592E-4</v>
       </c>
-      <c r="I50" s="18" t="s">
+      <c r="I50" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J50" s="18" t="s">
+      <c r="J50" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="K50" s="18">
+      <c r="K50" s="13">
         <v>18.690000000000001</v>
       </c>
-      <c r="L50" s="19">
+      <c r="L50" s="14">
         <v>6.7037037037037033E-4</v>
       </c>
-      <c r="M50" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="N50" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="O50" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="P50" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="R50" s="17" t="s">
+      <c r="M50" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="N50" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="O50" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P50" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="R50" s="12" t="s">
         <v>0</v>
       </c>
       <c r="S50" s="16"/>
@@ -13051,58 +13044,58 @@
       <c r="AK50" s="7"/>
     </row>
     <row r="51" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A51" s="20" t="s">
+      <c r="A51" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B51" s="18" t="s">
+      <c r="B51" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C51" s="18">
+      <c r="C51" s="13">
         <v>25.1</v>
       </c>
-      <c r="D51" s="19">
+      <c r="D51" s="14">
         <v>6.4988425925925923E-4</v>
       </c>
-      <c r="E51" s="18" t="s">
+      <c r="E51" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F51" s="18" t="s">
+      <c r="F51" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G51" s="18">
+      <c r="G51" s="13">
         <v>20.83</v>
       </c>
-      <c r="H51" s="19">
+      <c r="H51" s="14">
         <v>6.5648148148148152E-4</v>
       </c>
-      <c r="I51" s="18" t="s">
+      <c r="I51" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J51" s="18" t="s">
+      <c r="J51" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="K51" s="18">
+      <c r="K51" s="13">
         <v>20.62</v>
       </c>
-      <c r="L51" s="19">
+      <c r="L51" s="14">
         <v>6.613425925925926E-4</v>
       </c>
-      <c r="M51" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="N51" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="O51" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="P51" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="R51" s="17" t="s">
+      <c r="M51" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="N51" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="O51" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P51" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="R51" s="12" t="s">
         <v>0</v>
       </c>
       <c r="S51" s="16"/>
@@ -13129,58 +13122,58 @@
       <c r="AK51" s="7"/>
     </row>
     <row r="52" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A52" s="20" t="s">
+      <c r="A52" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B52" s="18" t="s">
+      <c r="B52" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C52" s="18">
+      <c r="C52" s="13">
         <v>30.52</v>
       </c>
-      <c r="D52" s="19">
+      <c r="D52" s="14">
         <v>6.4502314814814815E-4</v>
       </c>
-      <c r="E52" s="18" t="s">
+      <c r="E52" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F52" s="18" t="s">
+      <c r="F52" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G52" s="18">
+      <c r="G52" s="13">
         <v>23.06</v>
       </c>
-      <c r="H52" s="19">
+      <c r="H52" s="14">
         <v>6.4282407407407409E-4</v>
       </c>
-      <c r="I52" s="18" t="s">
+      <c r="I52" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J52" s="18" t="s">
+      <c r="J52" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="K52" s="18">
+      <c r="K52" s="13">
         <v>22.54</v>
       </c>
-      <c r="L52" s="19">
+      <c r="L52" s="14">
         <v>6.5486111111111116E-4</v>
       </c>
-      <c r="M52" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="N52" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="O52" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="P52" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="R52" s="17" t="s">
+      <c r="M52" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="N52" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="O52" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P52" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="R52" s="12" t="s">
         <v>0</v>
       </c>
       <c r="S52" s="16"/>
@@ -13207,52 +13200,52 @@
       <c r="AK52" s="7"/>
     </row>
     <row r="53" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A53" s="20"/>
-      <c r="B53" s="18" t="s">
+      <c r="A53" s="15"/>
+      <c r="B53" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="D53" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="E53" s="18"/>
-      <c r="F53" s="18" t="s">
+      <c r="C53" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G53" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="H53" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="I53" s="18"/>
-      <c r="J53" s="18" t="s">
+      <c r="G53" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H53" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="I53" s="13"/>
+      <c r="J53" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="K53" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="L53" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="M53" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="N53" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="O53" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="P53" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="R53" s="17" t="s">
+      <c r="K53" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="L53" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="M53" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="N53" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="O53" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P53" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="R53" s="12" t="s">
         <v>0</v>
       </c>
       <c r="S53" s="16"/>
@@ -13279,58 +13272,58 @@
       <c r="AK53" s="7"/>
     </row>
     <row r="54" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A54" s="20" t="s">
+      <c r="A54" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B54" s="18" t="s">
+      <c r="B54" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C54" s="18">
+      <c r="C54" s="13">
         <v>24.82</v>
       </c>
-      <c r="D54" s="19">
+      <c r="D54" s="14">
         <v>6.4212962962962954E-4</v>
       </c>
-      <c r="E54" s="18" t="s">
+      <c r="E54" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F54" s="18" t="s">
+      <c r="F54" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G54" s="18">
+      <c r="G54" s="13">
         <v>17.36</v>
       </c>
-      <c r="H54" s="19">
+      <c r="H54" s="14">
         <v>6.8703703703703711E-4</v>
       </c>
-      <c r="I54" s="18" t="s">
+      <c r="I54" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="J54" s="18" t="s">
+      <c r="J54" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="K54" s="18">
+      <c r="K54" s="13">
         <v>22.34</v>
       </c>
-      <c r="L54" s="19">
+      <c r="L54" s="14">
         <v>6.6863425925925933E-4</v>
       </c>
-      <c r="M54" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="N54" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="O54" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="P54" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="R54" s="17" t="s">
+      <c r="M54" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="N54" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="O54" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P54" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="R54" s="12" t="s">
         <v>0</v>
       </c>
       <c r="S54" s="16"/>
@@ -13357,58 +13350,58 @@
       <c r="AK54" s="7"/>
     </row>
     <row r="55" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A55" s="20" t="s">
+      <c r="A55" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B55" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C55" s="18">
+      <c r="C55" s="13">
         <v>28.81</v>
       </c>
-      <c r="D55" s="19">
+      <c r="D55" s="14">
         <v>6.344907407407407E-4</v>
       </c>
-      <c r="E55" s="18" t="s">
+      <c r="E55" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F55" s="18" t="s">
+      <c r="F55" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G55" s="18">
+      <c r="G55" s="13">
         <v>21.92</v>
       </c>
-      <c r="H55" s="19">
+      <c r="H55" s="14">
         <v>6.4490740740740741E-4</v>
       </c>
-      <c r="I55" s="18" t="s">
+      <c r="I55" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="J55" s="18" t="s">
+      <c r="J55" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="K55" s="18">
+      <c r="K55" s="13">
         <v>26.22</v>
       </c>
-      <c r="L55" s="19">
+      <c r="L55" s="14">
         <v>6.549768518518519E-4</v>
       </c>
-      <c r="M55" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="N55" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="O55" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="P55" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="R55" s="17" t="s">
+      <c r="M55" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="N55" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="O55" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P55" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="R55" s="12" t="s">
         <v>0</v>
       </c>
       <c r="S55" s="16"/>
@@ -16894,25 +16887,49 @@
       </c>
       <c r="AK117" s="7"/>
     </row>
-    <row r="118" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A118" s="6"/>
-      <c r="B118" s="6"/>
-      <c r="C118" s="6"/>
-      <c r="D118" s="6"/>
-      <c r="E118" s="6"/>
-      <c r="F118" s="6"/>
-      <c r="G118" s="6"/>
-      <c r="H118" s="6"/>
-      <c r="I118" s="6"/>
-      <c r="J118" s="6"/>
-      <c r="K118" s="6"/>
-      <c r="L118" s="6"/>
-      <c r="M118" s="6"/>
-      <c r="N118" s="6"/>
-      <c r="O118" s="6"/>
-      <c r="P118" s="6"/>
-      <c r="Q118" s="6"/>
-      <c r="R118" s="6"/>
+    <row r="118" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A118" s="11"/>
+      <c r="B118" s="10"/>
+      <c r="C118" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D118" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E118" s="10"/>
+      <c r="F118" s="10"/>
+      <c r="G118" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H118" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="I118" s="10"/>
+      <c r="J118" s="10"/>
+      <c r="K118" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="L118" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="M118" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="N118" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="O118" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="P118" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q118" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="R118" s="9" t="s">
+        <v>0</v>
+      </c>
       <c r="AH118" s="2"/>
       <c r="AI118" s="8"/>
       <c r="AJ118" s="4" t="e">
@@ -17191,7 +17208,26 @@
       </c>
       <c r="AK128" s="7"/>
     </row>
-    <row r="129" spans="35:37" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="129" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A129" s="6"/>
+      <c r="B129" s="6"/>
+      <c r="C129" s="6"/>
+      <c r="D129" s="6"/>
+      <c r="E129" s="6"/>
+      <c r="F129" s="6"/>
+      <c r="G129" s="6"/>
+      <c r="H129" s="6"/>
+      <c r="I129" s="6"/>
+      <c r="J129" s="6"/>
+      <c r="K129" s="6"/>
+      <c r="L129" s="6"/>
+      <c r="M129" s="6"/>
+      <c r="N129" s="6"/>
+      <c r="O129" s="6"/>
+      <c r="P129" s="6"/>
+      <c r="Q129" s="6"/>
+      <c r="R129" s="6"/>
+      <c r="AH129" s="2"/>
       <c r="AI129" s="8"/>
       <c r="AJ129" s="4" t="e">
         <f>IF((AI129-$AJ$1)/365.251606&gt;0,(AI129-$AJ$1)/365.251606,NA())</f>
@@ -17199,7 +17235,26 @@
       </c>
       <c r="AK129" s="7"/>
     </row>
-    <row r="130" spans="35:37" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="130" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A130" s="6"/>
+      <c r="B130" s="6"/>
+      <c r="C130" s="6"/>
+      <c r="D130" s="6"/>
+      <c r="E130" s="6"/>
+      <c r="F130" s="6"/>
+      <c r="G130" s="6"/>
+      <c r="H130" s="6"/>
+      <c r="I130" s="6"/>
+      <c r="J130" s="6"/>
+      <c r="K130" s="6"/>
+      <c r="L130" s="6"/>
+      <c r="M130" s="6"/>
+      <c r="N130" s="6"/>
+      <c r="O130" s="6"/>
+      <c r="P130" s="6"/>
+      <c r="Q130" s="6"/>
+      <c r="R130" s="6"/>
+      <c r="AH130" s="2"/>
       <c r="AI130" s="8"/>
       <c r="AJ130" s="4" t="e">
         <f>IF((AI130-$AJ$1)/365.251606&gt;0,(AI130-$AJ$1)/365.251606,NA())</f>
@@ -17207,7 +17262,26 @@
       </c>
       <c r="AK130" s="7"/>
     </row>
-    <row r="131" spans="35:37" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="131" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A131" s="6"/>
+      <c r="B131" s="6"/>
+      <c r="C131" s="6"/>
+      <c r="D131" s="6"/>
+      <c r="E131" s="6"/>
+      <c r="F131" s="6"/>
+      <c r="G131" s="6"/>
+      <c r="H131" s="6"/>
+      <c r="I131" s="6"/>
+      <c r="J131" s="6"/>
+      <c r="K131" s="6"/>
+      <c r="L131" s="6"/>
+      <c r="M131" s="6"/>
+      <c r="N131" s="6"/>
+      <c r="O131" s="6"/>
+      <c r="P131" s="6"/>
+      <c r="Q131" s="6"/>
+      <c r="R131" s="6"/>
+      <c r="AH131" s="2"/>
       <c r="AI131" s="8"/>
       <c r="AJ131" s="4" t="e">
         <f>IF((AI131-$AJ$1)/365.251606&gt;0,(AI131-$AJ$1)/365.251606,NA())</f>
@@ -17215,7 +17289,26 @@
       </c>
       <c r="AK131" s="7"/>
     </row>
-    <row r="132" spans="35:37" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="132" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A132" s="6"/>
+      <c r="B132" s="6"/>
+      <c r="C132" s="6"/>
+      <c r="D132" s="6"/>
+      <c r="E132" s="6"/>
+      <c r="F132" s="6"/>
+      <c r="G132" s="6"/>
+      <c r="H132" s="6"/>
+      <c r="I132" s="6"/>
+      <c r="J132" s="6"/>
+      <c r="K132" s="6"/>
+      <c r="L132" s="6"/>
+      <c r="M132" s="6"/>
+      <c r="N132" s="6"/>
+      <c r="O132" s="6"/>
+      <c r="P132" s="6"/>
+      <c r="Q132" s="6"/>
+      <c r="R132" s="6"/>
+      <c r="AH132" s="2"/>
       <c r="AI132" s="8"/>
       <c r="AJ132" s="4" t="e">
         <f>IF((AI132-$AJ$1)/365.251606&gt;0,(AI132-$AJ$1)/365.251606,NA())</f>
@@ -17223,7 +17316,26 @@
       </c>
       <c r="AK132" s="7"/>
     </row>
-    <row r="133" spans="35:37" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="133" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A133" s="6"/>
+      <c r="B133" s="6"/>
+      <c r="C133" s="6"/>
+      <c r="D133" s="6"/>
+      <c r="E133" s="6"/>
+      <c r="F133" s="6"/>
+      <c r="G133" s="6"/>
+      <c r="H133" s="6"/>
+      <c r="I133" s="6"/>
+      <c r="J133" s="6"/>
+      <c r="K133" s="6"/>
+      <c r="L133" s="6"/>
+      <c r="M133" s="6"/>
+      <c r="N133" s="6"/>
+      <c r="O133" s="6"/>
+      <c r="P133" s="6"/>
+      <c r="Q133" s="6"/>
+      <c r="R133" s="6"/>
+      <c r="AH133" s="2"/>
       <c r="AI133" s="8"/>
       <c r="AJ133" s="4" t="e">
         <f>IF((AI133-$AJ$1)/365.251606&gt;0,(AI133-$AJ$1)/365.251606,NA())</f>
@@ -17231,7 +17343,26 @@
       </c>
       <c r="AK133" s="7"/>
     </row>
-    <row r="134" spans="35:37" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="134" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A134" s="6"/>
+      <c r="B134" s="6"/>
+      <c r="C134" s="6"/>
+      <c r="D134" s="6"/>
+      <c r="E134" s="6"/>
+      <c r="F134" s="6"/>
+      <c r="G134" s="6"/>
+      <c r="H134" s="6"/>
+      <c r="I134" s="6"/>
+      <c r="J134" s="6"/>
+      <c r="K134" s="6"/>
+      <c r="L134" s="6"/>
+      <c r="M134" s="6"/>
+      <c r="N134" s="6"/>
+      <c r="O134" s="6"/>
+      <c r="P134" s="6"/>
+      <c r="Q134" s="6"/>
+      <c r="R134" s="6"/>
+      <c r="AH134" s="2"/>
       <c r="AI134" s="8"/>
       <c r="AJ134" s="4" t="e">
         <f>IF((AI134-$AJ$1)/365.251606&gt;0,(AI134-$AJ$1)/365.251606,NA())</f>
@@ -17239,7 +17370,26 @@
       </c>
       <c r="AK134" s="7"/>
     </row>
-    <row r="135" spans="35:37" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="135" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A135" s="6"/>
+      <c r="B135" s="6"/>
+      <c r="C135" s="6"/>
+      <c r="D135" s="6"/>
+      <c r="E135" s="6"/>
+      <c r="F135" s="6"/>
+      <c r="G135" s="6"/>
+      <c r="H135" s="6"/>
+      <c r="I135" s="6"/>
+      <c r="J135" s="6"/>
+      <c r="K135" s="6"/>
+      <c r="L135" s="6"/>
+      <c r="M135" s="6"/>
+      <c r="N135" s="6"/>
+      <c r="O135" s="6"/>
+      <c r="P135" s="6"/>
+      <c r="Q135" s="6"/>
+      <c r="R135" s="6"/>
+      <c r="AH135" s="2"/>
       <c r="AI135" s="8"/>
       <c r="AJ135" s="4" t="e">
         <f>IF((AI135-$AJ$1)/365.251606&gt;0,(AI135-$AJ$1)/365.251606,NA())</f>
@@ -17247,7 +17397,26 @@
       </c>
       <c r="AK135" s="7"/>
     </row>
-    <row r="136" spans="35:37" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="136" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A136" s="6"/>
+      <c r="B136" s="6"/>
+      <c r="C136" s="6"/>
+      <c r="D136" s="6"/>
+      <c r="E136" s="6"/>
+      <c r="F136" s="6"/>
+      <c r="G136" s="6"/>
+      <c r="H136" s="6"/>
+      <c r="I136" s="6"/>
+      <c r="J136" s="6"/>
+      <c r="K136" s="6"/>
+      <c r="L136" s="6"/>
+      <c r="M136" s="6"/>
+      <c r="N136" s="6"/>
+      <c r="O136" s="6"/>
+      <c r="P136" s="6"/>
+      <c r="Q136" s="6"/>
+      <c r="R136" s="6"/>
+      <c r="AH136" s="2"/>
       <c r="AI136" s="8"/>
       <c r="AJ136" s="4" t="e">
         <f>IF((AI136-$AJ$1)/365.251606&gt;0,(AI136-$AJ$1)/365.251606,NA())</f>
@@ -17255,7 +17424,26 @@
       </c>
       <c r="AK136" s="7"/>
     </row>
-    <row r="137" spans="35:37" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="137" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A137" s="6"/>
+      <c r="B137" s="6"/>
+      <c r="C137" s="6"/>
+      <c r="D137" s="6"/>
+      <c r="E137" s="6"/>
+      <c r="F137" s="6"/>
+      <c r="G137" s="6"/>
+      <c r="H137" s="6"/>
+      <c r="I137" s="6"/>
+      <c r="J137" s="6"/>
+      <c r="K137" s="6"/>
+      <c r="L137" s="6"/>
+      <c r="M137" s="6"/>
+      <c r="N137" s="6"/>
+      <c r="O137" s="6"/>
+      <c r="P137" s="6"/>
+      <c r="Q137" s="6"/>
+      <c r="R137" s="6"/>
+      <c r="AH137" s="2"/>
       <c r="AI137" s="8"/>
       <c r="AJ137" s="4" t="e">
         <f>IF((AI137-$AJ$1)/365.251606&gt;0,(AI137-$AJ$1)/365.251606,NA())</f>
@@ -17263,7 +17451,26 @@
       </c>
       <c r="AK137" s="7"/>
     </row>
-    <row r="138" spans="35:37" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="138" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A138" s="6"/>
+      <c r="B138" s="6"/>
+      <c r="C138" s="6"/>
+      <c r="D138" s="6"/>
+      <c r="E138" s="6"/>
+      <c r="F138" s="6"/>
+      <c r="G138" s="6"/>
+      <c r="H138" s="6"/>
+      <c r="I138" s="6"/>
+      <c r="J138" s="6"/>
+      <c r="K138" s="6"/>
+      <c r="L138" s="6"/>
+      <c r="M138" s="6"/>
+      <c r="N138" s="6"/>
+      <c r="O138" s="6"/>
+      <c r="P138" s="6"/>
+      <c r="Q138" s="6"/>
+      <c r="R138" s="6"/>
+      <c r="AH138" s="2"/>
       <c r="AI138" s="8"/>
       <c r="AJ138" s="4" t="e">
         <f>IF((AI138-$AJ$1)/365.251606&gt;0,(AI138-$AJ$1)/365.251606,NA())</f>
@@ -17271,7 +17478,26 @@
       </c>
       <c r="AK138" s="7"/>
     </row>
-    <row r="139" spans="35:37" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="139" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A139" s="6"/>
+      <c r="B139" s="6"/>
+      <c r="C139" s="6"/>
+      <c r="D139" s="6"/>
+      <c r="E139" s="6"/>
+      <c r="F139" s="6"/>
+      <c r="G139" s="6"/>
+      <c r="H139" s="6"/>
+      <c r="I139" s="6"/>
+      <c r="J139" s="6"/>
+      <c r="K139" s="6"/>
+      <c r="L139" s="6"/>
+      <c r="M139" s="6"/>
+      <c r="N139" s="6"/>
+      <c r="O139" s="6"/>
+      <c r="P139" s="6"/>
+      <c r="Q139" s="6"/>
+      <c r="R139" s="6"/>
+      <c r="AH139" s="2"/>
       <c r="AI139" s="8"/>
       <c r="AJ139" s="4" t="e">
         <f>IF((AI139-$AJ$1)/365.251606&gt;0,(AI139-$AJ$1)/365.251606,NA())</f>
@@ -17279,7 +17505,26 @@
       </c>
       <c r="AK139" s="7"/>
     </row>
-    <row r="140" spans="35:37" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="140" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A140" s="6"/>
+      <c r="B140" s="6"/>
+      <c r="C140" s="6"/>
+      <c r="D140" s="6"/>
+      <c r="E140" s="6"/>
+      <c r="F140" s="6"/>
+      <c r="G140" s="6"/>
+      <c r="H140" s="6"/>
+      <c r="I140" s="6"/>
+      <c r="J140" s="6"/>
+      <c r="K140" s="6"/>
+      <c r="L140" s="6"/>
+      <c r="M140" s="6"/>
+      <c r="N140" s="6"/>
+      <c r="O140" s="6"/>
+      <c r="P140" s="6"/>
+      <c r="Q140" s="6"/>
+      <c r="R140" s="6"/>
+      <c r="AH140" s="2"/>
       <c r="AI140" s="8"/>
       <c r="AJ140" s="4" t="e">
         <f>IF((AI140-$AJ$1)/365.251606&gt;0,(AI140-$AJ$1)/365.251606,NA())</f>
@@ -17287,7 +17532,26 @@
       </c>
       <c r="AK140" s="7"/>
     </row>
-    <row r="141" spans="35:37" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="141" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A141" s="6"/>
+      <c r="B141" s="6"/>
+      <c r="C141" s="6"/>
+      <c r="D141" s="6"/>
+      <c r="E141" s="6"/>
+      <c r="F141" s="6"/>
+      <c r="G141" s="6"/>
+      <c r="H141" s="6"/>
+      <c r="I141" s="6"/>
+      <c r="J141" s="6"/>
+      <c r="K141" s="6"/>
+      <c r="L141" s="6"/>
+      <c r="M141" s="6"/>
+      <c r="N141" s="6"/>
+      <c r="O141" s="6"/>
+      <c r="P141" s="6"/>
+      <c r="Q141" s="6"/>
+      <c r="R141" s="6"/>
+      <c r="AH141" s="2"/>
       <c r="AI141" s="8"/>
       <c r="AJ141" s="4" t="e">
         <f>IF((AI141-$AJ$1)/365.251606&gt;0,(AI141-$AJ$1)/365.251606,NA())</f>
@@ -17295,7 +17559,26 @@
       </c>
       <c r="AK141" s="7"/>
     </row>
-    <row r="142" spans="35:37" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="142" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A142" s="6"/>
+      <c r="B142" s="6"/>
+      <c r="C142" s="6"/>
+      <c r="D142" s="6"/>
+      <c r="E142" s="6"/>
+      <c r="F142" s="6"/>
+      <c r="G142" s="6"/>
+      <c r="H142" s="6"/>
+      <c r="I142" s="6"/>
+      <c r="J142" s="6"/>
+      <c r="K142" s="6"/>
+      <c r="L142" s="6"/>
+      <c r="M142" s="6"/>
+      <c r="N142" s="6"/>
+      <c r="O142" s="6"/>
+      <c r="P142" s="6"/>
+      <c r="Q142" s="6"/>
+      <c r="R142" s="6"/>
+      <c r="AH142" s="2"/>
       <c r="AI142" s="8"/>
       <c r="AJ142" s="4" t="e">
         <f>IF((AI142-$AJ$1)/365.251606&gt;0,(AI142-$AJ$1)/365.251606,NA())</f>
@@ -17303,7 +17586,26 @@
       </c>
       <c r="AK142" s="7"/>
     </row>
-    <row r="143" spans="35:37" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="143" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A143" s="6"/>
+      <c r="B143" s="6"/>
+      <c r="C143" s="6"/>
+      <c r="D143" s="6"/>
+      <c r="E143" s="6"/>
+      <c r="F143" s="6"/>
+      <c r="G143" s="6"/>
+      <c r="H143" s="6"/>
+      <c r="I143" s="6"/>
+      <c r="J143" s="6"/>
+      <c r="K143" s="6"/>
+      <c r="L143" s="6"/>
+      <c r="M143" s="6"/>
+      <c r="N143" s="6"/>
+      <c r="O143" s="6"/>
+      <c r="P143" s="6"/>
+      <c r="Q143" s="6"/>
+      <c r="R143" s="6"/>
+      <c r="AH143" s="2"/>
       <c r="AI143" s="8"/>
       <c r="AJ143" s="4" t="e">
         <f>IF((AI143-$AJ$1)/365.251606&gt;0,(AI143-$AJ$1)/365.251606,NA())</f>
@@ -17311,7 +17613,26 @@
       </c>
       <c r="AK143" s="7"/>
     </row>
-    <row r="144" spans="35:37" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="144" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A144" s="6"/>
+      <c r="B144" s="6"/>
+      <c r="C144" s="6"/>
+      <c r="D144" s="6"/>
+      <c r="E144" s="6"/>
+      <c r="F144" s="6"/>
+      <c r="G144" s="6"/>
+      <c r="H144" s="6"/>
+      <c r="I144" s="6"/>
+      <c r="J144" s="6"/>
+      <c r="K144" s="6"/>
+      <c r="L144" s="6"/>
+      <c r="M144" s="6"/>
+      <c r="N144" s="6"/>
+      <c r="O144" s="6"/>
+      <c r="P144" s="6"/>
+      <c r="Q144" s="6"/>
+      <c r="R144" s="6"/>
+      <c r="AH144" s="2"/>
       <c r="AI144" s="8"/>
       <c r="AJ144" s="4" t="e">
         <f>IF((AI144-$AJ$1)/365.251606&gt;0,(AI144-$AJ$1)/365.251606,NA())</f>
@@ -17319,7 +17640,26 @@
       </c>
       <c r="AK144" s="7"/>
     </row>
-    <row r="145" spans="35:37" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="145" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A145" s="6"/>
+      <c r="B145" s="6"/>
+      <c r="C145" s="6"/>
+      <c r="D145" s="6"/>
+      <c r="E145" s="6"/>
+      <c r="F145" s="6"/>
+      <c r="G145" s="6"/>
+      <c r="H145" s="6"/>
+      <c r="I145" s="6"/>
+      <c r="J145" s="6"/>
+      <c r="K145" s="6"/>
+      <c r="L145" s="6"/>
+      <c r="M145" s="6"/>
+      <c r="N145" s="6"/>
+      <c r="O145" s="6"/>
+      <c r="P145" s="6"/>
+      <c r="Q145" s="6"/>
+      <c r="R145" s="6"/>
+      <c r="AH145" s="2"/>
       <c r="AI145" s="8"/>
       <c r="AJ145" s="4" t="e">
         <f>IF((AI145-$AJ$1)/365.251606&gt;0,(AI145-$AJ$1)/365.251606,NA())</f>
@@ -17327,7 +17667,26 @@
       </c>
       <c r="AK145" s="7"/>
     </row>
-    <row r="146" spans="35:37" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="146" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A146" s="6"/>
+      <c r="B146" s="6"/>
+      <c r="C146" s="6"/>
+      <c r="D146" s="6"/>
+      <c r="E146" s="6"/>
+      <c r="F146" s="6"/>
+      <c r="G146" s="6"/>
+      <c r="H146" s="6"/>
+      <c r="I146" s="6"/>
+      <c r="J146" s="6"/>
+      <c r="K146" s="6"/>
+      <c r="L146" s="6"/>
+      <c r="M146" s="6"/>
+      <c r="N146" s="6"/>
+      <c r="O146" s="6"/>
+      <c r="P146" s="6"/>
+      <c r="Q146" s="6"/>
+      <c r="R146" s="6"/>
+      <c r="AH146" s="2"/>
       <c r="AI146" s="8"/>
       <c r="AJ146" s="4" t="e">
         <f>IF((AI146-$AJ$1)/365.251606&gt;0,(AI146-$AJ$1)/365.251606,NA())</f>
@@ -17335,7 +17694,26 @@
       </c>
       <c r="AK146" s="7"/>
     </row>
-    <row r="147" spans="35:37" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="147" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A147" s="6"/>
+      <c r="B147" s="6"/>
+      <c r="C147" s="6"/>
+      <c r="D147" s="6"/>
+      <c r="E147" s="6"/>
+      <c r="F147" s="6"/>
+      <c r="G147" s="6"/>
+      <c r="H147" s="6"/>
+      <c r="I147" s="6"/>
+      <c r="J147" s="6"/>
+      <c r="K147" s="6"/>
+      <c r="L147" s="6"/>
+      <c r="M147" s="6"/>
+      <c r="N147" s="6"/>
+      <c r="O147" s="6"/>
+      <c r="P147" s="6"/>
+      <c r="Q147" s="6"/>
+      <c r="R147" s="6"/>
+      <c r="AH147" s="2"/>
       <c r="AI147" s="8"/>
       <c r="AJ147" s="4" t="e">
         <f>IF((AI147-$AJ$1)/365.251606&gt;0,(AI147-$AJ$1)/365.251606,NA())</f>
@@ -17343,7 +17721,26 @@
       </c>
       <c r="AK147" s="7"/>
     </row>
-    <row r="148" spans="35:37" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="148" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A148" s="6"/>
+      <c r="B148" s="6"/>
+      <c r="C148" s="6"/>
+      <c r="D148" s="6"/>
+      <c r="E148" s="6"/>
+      <c r="F148" s="6"/>
+      <c r="G148" s="6"/>
+      <c r="H148" s="6"/>
+      <c r="I148" s="6"/>
+      <c r="J148" s="6"/>
+      <c r="K148" s="6"/>
+      <c r="L148" s="6"/>
+      <c r="M148" s="6"/>
+      <c r="N148" s="6"/>
+      <c r="O148" s="6"/>
+      <c r="P148" s="6"/>
+      <c r="Q148" s="6"/>
+      <c r="R148" s="6"/>
+      <c r="AH148" s="2"/>
       <c r="AI148" s="8"/>
       <c r="AJ148" s="4" t="e">
         <f>IF((AI148-$AJ$1)/365.251606&gt;0,(AI148-$AJ$1)/365.251606,NA())</f>
@@ -17351,7 +17748,26 @@
       </c>
       <c r="AK148" s="7"/>
     </row>
-    <row r="149" spans="35:37" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="149" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A149" s="6"/>
+      <c r="B149" s="6"/>
+      <c r="C149" s="6"/>
+      <c r="D149" s="6"/>
+      <c r="E149" s="6"/>
+      <c r="F149" s="6"/>
+      <c r="G149" s="6"/>
+      <c r="H149" s="6"/>
+      <c r="I149" s="6"/>
+      <c r="J149" s="6"/>
+      <c r="K149" s="6"/>
+      <c r="L149" s="6"/>
+      <c r="M149" s="6"/>
+      <c r="N149" s="6"/>
+      <c r="O149" s="6"/>
+      <c r="P149" s="6"/>
+      <c r="Q149" s="6"/>
+      <c r="R149" s="6"/>
+      <c r="AH149" s="2"/>
       <c r="AI149" s="8"/>
       <c r="AJ149" s="4" t="e">
         <f>IF((AI149-$AJ$1)/365.251606&gt;0,(AI149-$AJ$1)/365.251606,NA())</f>
@@ -17359,7 +17775,26 @@
       </c>
       <c r="AK149" s="7"/>
     </row>
-    <row r="150" spans="35:37" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="150" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A150" s="6"/>
+      <c r="B150" s="6"/>
+      <c r="C150" s="6"/>
+      <c r="D150" s="6"/>
+      <c r="E150" s="6"/>
+      <c r="F150" s="6"/>
+      <c r="G150" s="6"/>
+      <c r="H150" s="6"/>
+      <c r="I150" s="6"/>
+      <c r="J150" s="6"/>
+      <c r="K150" s="6"/>
+      <c r="L150" s="6"/>
+      <c r="M150" s="6"/>
+      <c r="N150" s="6"/>
+      <c r="O150" s="6"/>
+      <c r="P150" s="6"/>
+      <c r="Q150" s="6"/>
+      <c r="R150" s="6"/>
+      <c r="AH150" s="2"/>
       <c r="AI150" s="8"/>
       <c r="AJ150" s="4" t="e">
         <f>IF((AI150-$AJ$1)/365.251606&gt;0,(AI150-$AJ$1)/365.251606,NA())</f>

--- a/Prototype BackUp/PrototypeFinal/Prototype/bin/Release/Made/W/Track/W400m Hurdles.xlsx
+++ b/Prototype BackUp/PrototypeFinal/Prototype/bin/Release/Made/W/Track/W400m Hurdles.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="28755" windowHeight="12585"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="19095" windowHeight="12780"/>
   </bookViews>
   <sheets>
     <sheet name="W400m Hurdles" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1480" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="92">
   <si>
     <t>.</t>
   </si>
@@ -305,7 +305,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.000000000"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -316,6 +316,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -353,13 +354,8 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -384,8 +380,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor theme="8" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -484,6 +486,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -532,10 +545,10 @@
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -581,19 +594,25 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="47" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -610,7 +629,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-NZ"/>
+  <c:lang val="en-US"/>
   <c:protection>
     <c:data val="1"/>
   </c:protection>
@@ -642,7 +661,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.16642389576946326"/>
+          <c:x val="0.16642389576946334"/>
           <c:y val="8.4435033856062228E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -661,7 +680,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.16022099447513821"/>
           <c:y val="7.1964070672723229E-2"/>
-          <c:w val="0.80773480662984576"/>
+          <c:w val="0.80773480662984642"/>
           <c:h val="0.79760178328934894"/>
         </c:manualLayout>
       </c:layout>
@@ -7791,11 +7810,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="235902464"/>
-        <c:axId val="235904384"/>
+        <c:axId val="196647552"/>
+        <c:axId val="196657920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="235902464"/>
+        <c:axId val="196647552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="34"/>
@@ -7829,8 +7848,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.49080621997722695"/>
-              <c:y val="0.94397349490978155"/>
+              <c:x val="0.49080621997722729"/>
+              <c:y val="0.94397349490978189"/>
             </c:manualLayout>
           </c:layout>
           <c:spPr>
@@ -7868,18 +7887,18 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="235904384"/>
+        <c:crossAx val="196657920"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="235904384"/>
+        <c:axId val="196657920"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
-          <c:max val="7.6099500000000172E-4"/>
-          <c:min val="6.1342600000000946E-4"/>
+          <c:max val="7.6099500000000194E-4"/>
+          <c:min val="6.1342600000001001E-4"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:title>
@@ -7910,7 +7929,7 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="7.0724328412636534E-3"/>
-              <c:y val="0.41426176769921041"/>
+              <c:y val="0.41426176769921064"/>
             </c:manualLayout>
           </c:layout>
           <c:spPr>
@@ -7948,11 +7967,11 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="235902464"/>
+        <c:crossAx val="196647552"/>
         <c:crossesAt val="14"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1.157400000000005E-5"/>
-        <c:minorUnit val="2.8940000000000095E-6"/>
+        <c:majorUnit val="1.1574000000000062E-5"/>
+        <c:minorUnit val="2.8940000000000112E-6"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -7998,7 +8017,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196850393659" l="0.74803149606299923" r="0.74803149606299923" t="0.98425196850393659" header="0.51181102362204722" footer="0.51181102362204722"/>
+    <c:pageMargins b="0.98425196850393659" l="0.74803149606299968" r="0.74803149606299968" t="0.98425196850393659" header="0.51181102362204722" footer="0.51181102362204722"/>
     <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="-3" verticalDpi="-3"/>
   </c:printSettings>
 </c:chartSpace>
@@ -8332,29 +8351,29 @@
   </sheetPr>
   <dimension ref="A1:AL150"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="T1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:R1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6:P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" style="6" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="6" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" style="6" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" style="6" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5703125" style="6" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="6" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" style="6" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" style="6" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="23.5703125" style="6" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="6" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="7.140625" style="6" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="8.42578125" style="6" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="6.28515625" style="6" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="8.42578125" style="6" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="12" style="6" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="15.5703125" style="6" hidden="1" customWidth="1"/>
-    <col min="17" max="18" width="16.28515625" style="6" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="9" style="6" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="9" style="6" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="9" style="6" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" style="6" customWidth="1"/>
+    <col min="12" max="12" width="8.42578125" style="6" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" style="6" customWidth="1"/>
+    <col min="14" max="14" width="8.42578125" style="6" customWidth="1"/>
+    <col min="15" max="15" width="12" style="6" customWidth="1"/>
+    <col min="16" max="16" width="15.5703125" style="6" customWidth="1"/>
+    <col min="17" max="18" width="16.28515625" style="6" customWidth="1"/>
     <col min="19" max="19" width="7.85546875" style="1" customWidth="1"/>
     <col min="20" max="20" width="11.7109375" style="1" customWidth="1"/>
     <col min="21" max="21" width="15.42578125" style="1" customWidth="1"/>
@@ -9691,66 +9710,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="N1" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="O1" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="P1" s="24" t="s">
+      <c r="P1" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="Q1" s="24" t="s">
+      <c r="Q1" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="R1" s="23" t="s">
+      <c r="R1" s="25" t="s">
         <v>74</v>
       </c>
       <c r="AH1" s="2"/>
-      <c r="AI1" s="22" t="s">
+      <c r="AI1" s="24" t="s">
         <v>73</v>
       </c>
       <c r="AJ1" s="4"/>
-      <c r="AK1" s="21" t="s">
+      <c r="AK1" s="23" t="s">
         <v>72</v>
       </c>
     </row>
@@ -9810,11 +9829,11 @@
         <v>28.39</v>
       </c>
       <c r="AH2" s="2"/>
-      <c r="AI2" s="22">
+      <c r="AI2" s="24">
         <v>38437</v>
       </c>
       <c r="AJ2" s="4"/>
-      <c r="AK2" s="21">
+      <c r="AK2" s="23">
         <f>D3</f>
         <v>6.4722222222222232E-4</v>
       </c>
@@ -10039,17 +10058,17 @@
       <c r="L6" s="14">
         <v>6.8101851851851863E-4</v>
       </c>
-      <c r="M6" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="N6" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="O6" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="P6" s="13" t="s">
-        <v>0</v>
+      <c r="M6" s="22">
+        <v>6.134259259259259E-4</v>
+      </c>
+      <c r="N6" s="21">
+        <v>7.6099537037037054E-4</v>
+      </c>
+      <c r="O6" s="21">
+        <v>1.1574074074074073E-5</v>
+      </c>
+      <c r="P6" s="21">
+        <v>2.8935185185185184E-6</v>
       </c>
       <c r="Q6" s="13" t="s">
         <v>0</v>
@@ -17803,7 +17822,6 @@
       <c r="AK150" s="7"/>
     </row>
   </sheetData>
-  <sheetProtection password="E455" sheet="1" scenarios="1"/>
   <autoFilter ref="A1:L122"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="21" orientation="landscape" r:id="rId1"/>
